--- a/tut05/output/0401CS26.xlsx
+++ b/tut05/output/0401CS26.xlsx
@@ -550,25 +550,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.326530612244898</v>
+        <v>5.33</v>
       </c>
       <c r="C6" t="n">
-        <v>5.181818181818182</v>
+        <v>5.18</v>
       </c>
       <c r="D6" t="n">
-        <v>6.488372093023256</v>
+        <v>6.49</v>
       </c>
       <c r="E6" t="n">
-        <v>6.659574468085107</v>
+        <v>6.66</v>
       </c>
       <c r="F6" t="n">
-        <v>6.142857142857143</v>
+        <v>6.14</v>
       </c>
       <c r="G6" t="n">
         <v>6.55</v>
       </c>
       <c r="H6" t="n">
-        <v>7.292682926829269</v>
+        <v>7.29</v>
       </c>
       <c r="I6" t="n">
         <v>8.25</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.326530612244898</v>
+        <v>5.33</v>
       </c>
       <c r="C8" t="n">
-        <v>5.258064516129032</v>
+        <v>5.26</v>
       </c>
       <c r="D8" t="n">
-        <v>5.647058823529412</v>
+        <v>5.65</v>
       </c>
       <c r="E8" t="n">
-        <v>5.907103825136612</v>
+        <v>5.91</v>
       </c>
       <c r="F8" t="n">
-        <v>5.951111111111111</v>
+        <v>5.95</v>
       </c>
       <c r="G8" t="n">
-        <v>6.041509433962264</v>
+        <v>6.04</v>
       </c>
       <c r="H8" t="n">
-        <v>6.209150326797386</v>
+        <v>6.21</v>
       </c>
       <c r="I8" t="n">
-        <v>6.445086705202312</v>
+        <v>6.45</v>
       </c>
     </row>
   </sheetData>
